--- a/public/import/weekly_template.xlsx
+++ b/public/import/weekly_template.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D7612E-A826-40E6-8321-037B0FE7B382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" forceFullCalc="1"/>
+  <calcPr calcId="181029" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>year</t>
   </si>
@@ -34,50 +40,49 @@
     <t>NON</t>
   </si>
   <si>
-    <t>Closing Data program</t>
-  </si>
-  <si>
-    <t>Fu Revisi program yg blm selesai</t>
-  </si>
-  <si>
-    <t>Instalasi &amp; test revisi program</t>
-  </si>
-  <si>
-    <t>Maintenance Data Server</t>
-  </si>
-  <si>
-    <t>Fu Revisi transaksi refund cvtop</t>
-  </si>
-  <si>
-    <t>Upload Data transaksi 2018</t>
-  </si>
-  <si>
-    <t>Create IK input transaksi penjualan tukar tambah</t>
-  </si>
-  <si>
-    <t>Closing Tahun CV CS &amp; MSI</t>
-  </si>
-  <si>
-    <t>Monitoring input data asset</t>
-  </si>
-  <si>
-    <t>Kirim AMPM Tepat Waktu</t>
+    <t>PEMERIKSAAN TOKO &amp; DEPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEMERIKSAAN STOCK HP &amp; ACC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEMBUATAN LHP &amp; BAP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOLLOW UP FINDING STATUS OPEN ON PROGRESS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENGIRIMAN RENCANA KERJA &amp; REALISASI TODOLIST TEPAT WAKTU </t>
+  </si>
+  <si>
+    <t>ABSEN &amp; TO DO LIST MENGGUNAKAN TALENTA ABSEN/DND</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Verdana"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -101,12 +106,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -116,6 +120,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -407,27 +414,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="98.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="62.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="62.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -438,147 +446,92 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2022</v>
-      </c>
-      <c r="B2">
-        <v>16</v>
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2022</v>
-      </c>
-      <c r="B3">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2022</v>
-      </c>
-      <c r="B4">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2022</v>
-      </c>
-      <c r="B5">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2022</v>
-      </c>
-      <c r="B6">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2022</v>
-      </c>
-      <c r="B7">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2022</v>
-      </c>
-      <c r="B8">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2022</v>
-      </c>
-      <c r="B9">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2022</v>
-      </c>
-      <c r="B10">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2022</v>
-      </c>
-      <c r="B11">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/import/weekly_template.xlsx
+++ b/public/import/weekly_template.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D7612E-A826-40E6-8321-037B0FE7B382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" forceFullCalc="1"/>
+  <calcPr calcId="152511" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>year</t>
   </si>
@@ -40,50 +39,42 @@
     <t>NON</t>
   </si>
   <si>
-    <t>PEMERIKSAAN TOKO &amp; DEPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEMERIKSAAN STOCK HP &amp; ACC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEMBUATAN LHP &amp; BAP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOLLOW UP FINDING STATUS OPEN ON PROGRESS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENGIRIMAN RENCANA KERJA &amp; REALISASI TODOLIST TEPAT WAKTU </t>
-  </si>
-  <si>
-    <t>ABSEN &amp; TO DO LIST MENGGUNAKAN TALENTA ABSEN/DND</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>24</t>
+    <t>Audit mutasi bank harian.</t>
+  </si>
+  <si>
+    <t>Audit mutasi bank bulanan.</t>
+  </si>
+  <si>
+    <t>Audit Laporan Keuangan</t>
+  </si>
+  <si>
+    <t>Audit Pembelian.</t>
+  </si>
+  <si>
+    <t>Audit Biaya.</t>
+  </si>
+  <si>
+    <t>Audit to do list busdev.</t>
+  </si>
+  <si>
+    <t>Audit vaksin SCM.</t>
+  </si>
+  <si>
+    <t>Pengiriman rencana kerja &amp; realisasi todolist tepat waktu.</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,11 +97,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,21 +404,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="62.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,101 +427,145 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>